--- a/cns/(cns.generator)/Load Centers.xlsx
+++ b/cns/(cns.generator)/Load Centers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="23124" windowHeight="4272"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="23124" windowHeight="4272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="429">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1231,6 +1231,81 @@
   </si>
   <si>
     <t>Homeline Rainproof 1Ph3W Main Lugs and Main Breaker</t>
+  </si>
+  <si>
+    <t>HOM24L70RB</t>
+  </si>
+  <si>
+    <t>HOM612L100RB</t>
+  </si>
+  <si>
+    <t>HOM48L125GRB</t>
+  </si>
+  <si>
+    <t>HOM816L125PRB</t>
+  </si>
+  <si>
+    <t>HOM1224L125PRB</t>
+  </si>
+  <si>
+    <t>HOM2040L125PRB</t>
+  </si>
+  <si>
+    <t>HOM2448L125PRB</t>
+  </si>
+  <si>
+    <t>HOM12L225PRB</t>
+  </si>
+  <si>
+    <t>HOM1632L225PRB</t>
+  </si>
+  <si>
+    <t>HOM2040L225PRB</t>
+  </si>
+  <si>
+    <t>HOM3060L225PRB</t>
+  </si>
+  <si>
+    <t>HOM4080L225PRB</t>
+  </si>
+  <si>
+    <t>HOM4284L225PRB</t>
+  </si>
+  <si>
+    <t>HOM816M100PRB</t>
+  </si>
+  <si>
+    <t>HOM1224M100PRB</t>
+  </si>
+  <si>
+    <t>HOM2040M100PRB</t>
+  </si>
+  <si>
+    <t>HOM816M125PRB</t>
+  </si>
+  <si>
+    <t>HOM2448M125PRB</t>
+  </si>
+  <si>
+    <t>HOM3060M150PRB</t>
+  </si>
+  <si>
+    <t>HOM12M200PRB</t>
+  </si>
+  <si>
+    <t>HOM2040M200PRB</t>
+  </si>
+  <si>
+    <t>HOM3060M200PRB</t>
+  </si>
+  <si>
+    <t>HOM4080M200PRB</t>
+  </si>
+  <si>
+    <t>HOM816M150PFTRB</t>
+  </si>
+  <si>
+    <t>HOM816M200PFTRB</t>
   </si>
 </sst>
 </file>
@@ -1973,13 +2048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D272" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D279" sqref="D279"/>
+      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9022,8 +9097,650 @@
       </c>
     </row>
     <row r="278" spans="1:9">
+      <c r="A278" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D278" s="18" t="s">
         <v>403</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I278" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I279" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D280" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I280" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I281" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I282" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I283" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I284" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I285" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I286" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I287" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I288" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I289" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I290" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I291" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I292" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I293" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I294" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I295" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I296" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I297" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D298" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I298" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I299" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I300" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I301" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I302" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -9045,7 +9762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
